--- a/data/all.xlsx
+++ b/data/all.xlsx
@@ -975,31 +975,31 @@
         <v>87</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="b">
         <v>1</v>
       </c>
       <c r="W2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
         <v>87</v>
@@ -1157,31 +1157,31 @@
         <v>87</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="b">
         <v>1</v>
       </c>
       <c r="W3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
         <v>88</v>
@@ -1330,31 +1330,31 @@
         <v>87</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
       </c>
       <c r="T4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
         <v>88</v>
@@ -1512,31 +1512,31 @@
         <v>87</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="b">
         <v>1</v>
       </c>
       <c r="W5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
         <v>87</v>
@@ -1691,31 +1691,31 @@
         <v>87</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="b">
         <v>1</v>
       </c>
       <c r="R6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
         <v>88</v>
@@ -1861,31 +1861,31 @@
         <v>75</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7" t="s">
         <v>119</v>
@@ -1929,31 +1929,31 @@
         <v>87</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="b">
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
         <v>87</v>
@@ -2117,31 +2117,31 @@
         <v>92</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
         <v>88</v>
@@ -2308,28 +2308,28 @@
         <v>1</v>
       </c>
       <c r="Q10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
         <v>85</v>
@@ -2466,31 +2466,31 @@
         <v>72</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="s">
         <v>119</v>
@@ -2513,31 +2513,31 @@
         <v>72</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="s">
         <v>119</v>
@@ -2590,31 +2590,31 @@
         <v>93</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
         <v>88</v>
@@ -2769,31 +2769,31 @@
         <v>87</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="b">
         <v>1</v>
       </c>
       <c r="R14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="s">
         <v>84</v>
@@ -2954,31 +2954,31 @@
         <v>87</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="b">
         <v>1</v>
       </c>
       <c r="T15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="b">
         <v>1</v>
       </c>
       <c r="W15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN15" t="s">
         <v>119</v>
@@ -3022,31 +3022,31 @@
         <v>87</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="b">
         <v>1</v>
       </c>
       <c r="X16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
         <v>87</v>
@@ -3210,28 +3210,28 @@
         <v>87</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="b">
         <v>1</v>
@@ -3320,31 +3320,31 @@
         <v>93</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="s">
         <v>88</v>
@@ -3487,31 +3487,31 @@
         <v>82</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN19" t="s">
         <v>119</v>
@@ -3555,31 +3555,31 @@
         <v>87</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="b">
         <v>1</v>
       </c>
       <c r="R20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="s">
         <v>91</v>
@@ -3701,31 +3701,31 @@
         <v>92</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="s">
         <v>88</v>
@@ -3877,31 +3877,31 @@
         <v>87</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="b">
         <v>1</v>
       </c>
       <c r="W22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="s">
         <v>88</v>
@@ -4050,31 +4050,31 @@
         <v>78</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN23" t="s">
         <v>119</v>
@@ -4118,28 +4118,28 @@
         <v>87</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="b">
         <v>1</v>
@@ -4300,31 +4300,31 @@
         <v>87</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="b">
         <v>1</v>
       </c>
       <c r="W25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="s">
         <v>87</v>
@@ -4485,31 +4485,31 @@
         <v>87</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="b">
         <v>1</v>
       </c>
       <c r="R26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="s">
         <v>87</v>
@@ -4673,28 +4673,28 @@
         <v>87</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" t="b">
         <v>1</v>
@@ -4741,31 +4741,31 @@
         <v>87</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="b">
         <v>1</v>
       </c>
       <c r="W28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="s">
         <v>97</v>
@@ -4827,31 +4827,31 @@
         <v>87</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="b">
         <v>1</v>
       </c>
       <c r="W29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="s">
         <v>87</v>
@@ -5018,31 +5018,31 @@
         <v>93</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="s">
         <v>87</v>
@@ -5203,31 +5203,31 @@
         <v>87</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="b">
         <v>1</v>
       </c>
       <c r="R31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" t="b">
         <v>1</v>
       </c>
       <c r="W31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="s">
         <v>88</v>
@@ -5388,31 +5388,31 @@
         <v>87</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" t="b">
         <v>1</v>
       </c>
       <c r="W32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="s">
         <v>88</v>
@@ -5573,31 +5573,31 @@
         <v>93</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="s">
         <v>87</v>
@@ -5749,31 +5749,31 @@
         <v>80</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="s">
         <v>88</v>
@@ -5925,31 +5925,31 @@
         <v>87</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="b">
         <v>1</v>
       </c>
       <c r="T35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="s">
         <v>87</v>
@@ -6038,31 +6038,31 @@
         <v>87</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" t="b">
         <v>1</v>
       </c>
       <c r="W36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN36" t="s">
         <v>119</v>
@@ -6106,31 +6106,31 @@
         <v>87</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" t="b">
         <v>1</v>
       </c>
       <c r="T37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="s">
         <v>87</v>
@@ -6261,31 +6261,31 @@
         <v>85</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN38" t="s">
         <v>119</v>
@@ -6326,31 +6326,31 @@
         <v>87</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="b">
         <v>1</v>
       </c>
       <c r="T39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="s">
         <v>88</v>
@@ -6430,31 +6430,31 @@
         <v>87</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="b">
         <v>1</v>
       </c>
       <c r="R40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="s">
         <v>88</v>
@@ -6606,31 +6606,31 @@
         <v>87</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="b">
         <v>1</v>
       </c>
       <c r="R41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="b">
         <v>1</v>
       </c>
       <c r="T41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="s">
         <v>87</v>
@@ -6791,31 +6791,31 @@
         <v>93</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN42" t="s">
         <v>120</v>
@@ -6859,10 +6859,10 @@
         <v>87</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="b">
         <v>1</v>
@@ -6871,19 +6871,19 @@
         <v>1</v>
       </c>
       <c r="T43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN43" t="s">
         <v>120</v>
@@ -6927,31 +6927,31 @@
         <v>87</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN44" t="s">
         <v>120</v>
@@ -6992,31 +6992,31 @@
         <v>87</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="b">
         <v>1</v>
       </c>
       <c r="T45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="s">
         <v>88</v>
@@ -7135,31 +7135,31 @@
         <v>94</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="s">
         <v>88</v>
@@ -7317,31 +7317,31 @@
         <v>87</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="b">
         <v>1</v>
       </c>
       <c r="R47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="s">
         <v>88</v>
@@ -7508,31 +7508,31 @@
         <v>92</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="s">
         <v>88</v>
@@ -7690,31 +7690,31 @@
         <v>87</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="b">
         <v>1</v>
       </c>
       <c r="R49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" t="b">
         <v>1</v>
       </c>
       <c r="T49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN49" t="s">
         <v>120</v>
@@ -7767,31 +7767,31 @@
         <v>93</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="s">
         <v>88</v>
@@ -7964,31 +7964,31 @@
         <v>92</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="s">
         <v>88</v>
@@ -8092,31 +8092,31 @@
         <v>87</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="b">
         <v>1</v>
       </c>
       <c r="R52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="s">
         <v>88</v>
@@ -8283,31 +8283,31 @@
         <v>84</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="s">
         <v>84</v>
@@ -8477,31 +8477,31 @@
         <v>93</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="s">
         <v>88</v>
@@ -8674,31 +8674,31 @@
         <v>93</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="s">
         <v>88</v>
@@ -8763,31 +8763,31 @@
         <v>72</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN56" t="s">
         <v>120</v>
@@ -8831,31 +8831,31 @@
         <v>87</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="b">
         <v>1</v>
       </c>
       <c r="R57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="s">
         <v>88</v>
@@ -9013,31 +9013,31 @@
         <v>87</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="b">
         <v>1</v>
       </c>
       <c r="R58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" t="b">
         <v>1</v>
       </c>
       <c r="T58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58" t="s">
         <v>88</v>
@@ -9186,31 +9186,31 @@
         <v>87</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="b">
         <v>1</v>
       </c>
       <c r="U59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="s">
         <v>88</v>
@@ -9359,31 +9359,31 @@
         <v>87</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" t="b">
         <v>1</v>
       </c>
       <c r="T60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60" t="s">
         <v>120</v>
@@ -9436,31 +9436,31 @@
         <v>93</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="s">
         <v>88</v>
@@ -9594,31 +9594,31 @@
         <v>72</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN62" t="s">
         <v>120</v>
@@ -9662,31 +9662,31 @@
         <v>87</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="s">
         <v>87</v>
@@ -9856,31 +9856,31 @@
         <v>93</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="s">
         <v>88</v>
@@ -10038,10 +10038,10 @@
         <v>87</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" t="b">
         <v>1</v>
@@ -10050,19 +10050,19 @@
         <v>1</v>
       </c>
       <c r="T65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="s">
         <v>88</v>
@@ -10217,31 +10217,31 @@
         <v>87</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="s">
         <v>87</v>
@@ -10396,31 +10396,31 @@
         <v>87</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="b">
         <v>1</v>
       </c>
       <c r="R67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="s">
         <v>87</v>
@@ -10569,31 +10569,31 @@
         <v>87</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN68" t="s">
         <v>120</v>
@@ -10637,31 +10637,31 @@
         <v>87</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" t="b">
         <v>1</v>
       </c>
       <c r="T69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="s">
         <v>88</v>
@@ -10831,31 +10831,31 @@
         <v>93</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN70" t="s">
         <v>120</v>
@@ -10908,31 +10908,31 @@
         <v>92</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y71" t="s">
         <v>88</v>
@@ -11096,31 +11096,31 @@
         <v>92</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" t="s">
         <v>88</v>
@@ -11272,31 +11272,31 @@
         <v>87</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" t="b">
         <v>1</v>
       </c>
       <c r="T73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="s">
         <v>87</v>
@@ -11439,31 +11439,31 @@
         <v>72</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN74" t="s">
         <v>120</v>
@@ -11507,31 +11507,31 @@
         <v>87</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="b">
         <v>1</v>
       </c>
       <c r="R75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75" t="s">
         <v>87</v>
@@ -11683,31 +11683,31 @@
         <v>87</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="b">
         <v>1</v>
       </c>
       <c r="R76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="s">
         <v>88</v>
